--- a/biology/Botanique/Tacca_palmata/Tacca_palmata.xlsx
+++ b/biology/Botanique/Tacca_palmata/Tacca_palmata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tacca palmata est une espèce de la famille des Dioscoreaceae.
 L'aire de répartition naturelle de cette espèce s'étend de l'Indochine à la Malaisie et aux îles Carolines (Palau). Il est présent à
-Bornéo, au Cambodge, en Indonésie, en Malaisie, en Nouvelle-Guinée, aux Philippines, aux Île de Célèbes, à Sumatra, en Thailande et au Viêt Nam[1].
-C'est un géophyte tubéreux qui pousse principalement[1].
-Il a été décrit par Carl Ludwig Blume en 1827[1],[2].
+Bornéo, au Cambodge, en Indonésie, en Malaisie, en Nouvelle-Guinée, aux Philippines, aux Île de Célèbes, à Sumatra, en Thailande et au Viêt Nam.
+C'est un géophyte tubéreux qui pousse principalement.
+Il a été décrit par Carl Ludwig Blume en 1827,.
 </t>
         </is>
       </c>
@@ -515,10 +527,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Tacca palmata Blume[3].
-Tacca palmata a pour synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Tacca palmata Blume.
+Tacca palmata a pour synonymes :
 Tacca angustilobata Merr.
 Tacca elmeri K.Krause
 Tacca fatsiifolia Warb.
